--- a/output/ursus/2019/sheets/year_2019.xlsx
+++ b/output/ursus/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>57.81935483870968</v>
+        <v>57.86079350052484</v>
       </c>
       <c r="C2" t="n">
-        <v>50.61935483870968</v>
+        <v>50.89079143169123</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>58.48571428571429</v>
+        <v>58.63340196204948</v>
       </c>
       <c r="C3" t="n">
-        <v>51.05357142857142</v>
+        <v>51.18803054450017</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>48.29677419354839</v>
+        <v>56.07595533070114</v>
       </c>
       <c r="C4" t="n">
-        <v>38.38064516129033</v>
+        <v>49.42790117423642</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.78333333333333</v>
+        <v>36.36655253764435</v>
       </c>
       <c r="C5" t="n">
-        <v>8.796666666666665</v>
+        <v>40.74933657936594</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.59354838709677</v>
+        <v>40.23006678655528</v>
       </c>
       <c r="C6" t="n">
-        <v>21.52903225806452</v>
+        <v>39.78607475621838</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.66333333333333</v>
+        <v>36.6302594914844</v>
       </c>
       <c r="C7" t="n">
-        <v>17.02666666666667</v>
+        <v>37.45420311549657</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>58.9741935483871</v>
+        <v>59.01980913456697</v>
       </c>
       <c r="C8" t="n">
-        <v>50.98064516129031</v>
+        <v>51.23509114143626</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>58.90967741935483</v>
+        <v>58.92581733396944</v>
       </c>
       <c r="C9" t="n">
-        <v>50.94193548387096</v>
+        <v>51.13743287445287</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>59.46</v>
+        <v>59.48144186819418</v>
       </c>
       <c r="C10" t="n">
-        <v>51.51</v>
+        <v>51.67390058161055</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.22903225806452</v>
+        <v>58.57259477460231</v>
       </c>
       <c r="C11" t="n">
-        <v>32.77741935483871</v>
+        <v>51.3948346081019</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>59.21666666666668</v>
+        <v>59.23283306477835</v>
       </c>
       <c r="C12" t="n">
-        <v>52.10333333333334</v>
+        <v>52.24855970795993</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>58.26129032258064</v>
+        <v>58.33041258987243</v>
       </c>
       <c r="C13" t="n">
-        <v>50.57419354838711</v>
+        <v>50.85378834961861</v>
       </c>
     </row>
   </sheetData>
